--- a/GRAFICA DE GANTT.xlsx
+++ b/GRAFICA DE GANTT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>A1)</t>
   </si>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,6 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,7 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,10 +2557,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134697</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
+      <xdr:rowOff>137664</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="638175" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2562,7 +2570,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524625" y="3349626"/>
+          <a:off x="5933081" y="4358169"/>
           <a:ext cx="638175" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2593,58 +2601,6 @@
           <a:r>
             <a:rPr lang="es-MX" sz="1100"/>
             <a:t>Junio</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>87312</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638175" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7786687" y="3349626"/>
-          <a:ext cx="638175" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100"/>
-            <a:t>Julio</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2712,16 +2668,21 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-MX" sz="1100"/>
-            <a:t> 3 	10           	 7					</a:t>
+            <a:t> 3 	10           	 7</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-MX" sz="1100" baseline="0"/>
-            <a:t>        </a:t>
+            <a:t>                   </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-MX" sz="1100"/>
-            <a:t>30</a:t>
-          </a:r>
+            <a:t>21	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>             5                                                     11</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3487,11 +3448,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>238413</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144612</xdr:rowOff>
+      <xdr:colOff>225585</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102626</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2245810" cy="3881319"/>
+    <xdr:ext cx="2245810" cy="1642021"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="CuadroTexto 18"/>
@@ -3499,8 +3460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5746348" y="4261069"/>
-          <a:ext cx="2245810" cy="3881319"/>
+          <a:off x="6023969" y="4695151"/>
+          <a:ext cx="2245810" cy="1642021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3523,9 +3484,75 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Desarrollo y documentación del software</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E1) Desarrollo del software original.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E2) Programación del software</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E3) Documentación del Software</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="es-MX" sz="1100">
@@ -3541,9 +3568,8 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="es-419" sz="1100">
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3552,9 +3578,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:t>Implementación</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> del Sistema</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -3575,13 +3613,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="es-419" sz="1100" b="1">
+            <a:t>F1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3590,86 +3625,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Desarrollo y documentación del software</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>E1) Desarrollo del software original.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>E2) Programación del software</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>E3) Documentación del Software</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:t> Entrega</a:t>
+          </a:r>
           <a:endParaRPr lang="es-MX" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -4222,6 +4179,618 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7202</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>306334</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175136</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5753464" y="1425081"/>
+          <a:ext cx="299132" cy="162686"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8669</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>244826</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5754931" y="1419833"/>
+          <a:ext cx="236157" cy="125950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78798</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5015</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179009</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector recto 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5825060" y="1465690"/>
+          <a:ext cx="236878" cy="125950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3203</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153144</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector recto 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5749465" y="1414585"/>
+          <a:ext cx="149941" cy="78782"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155603</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>305544</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2571</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector recto 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5901865" y="1525408"/>
+          <a:ext cx="149941" cy="81271"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>306651</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1826</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="Grupo 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5773422" y="1214343"/>
+          <a:ext cx="314572" cy="190170"/>
+          <a:chOff x="5746790" y="1220409"/>
+          <a:chExt cx="312961" cy="191117"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Conector recto 30"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5753465" y="1225657"/>
+            <a:ext cx="236157" cy="125950"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="Conector recto 31"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5823594" y="1271514"/>
+            <a:ext cx="236157" cy="125950"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Conector recto 32"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5746790" y="1220409"/>
+            <a:ext cx="151150" cy="78782"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="Conector recto 33"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5900399" y="1331232"/>
+            <a:ext cx="149941" cy="80294"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="Conector recto 34"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5751672" y="1226416"/>
+            <a:ext cx="300341" cy="162686"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>263</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189691</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="Grupo 43"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="5781606" y="1212656"/>
+          <a:ext cx="304537" cy="190169"/>
+          <a:chOff x="5746790" y="1220409"/>
+          <a:chExt cx="312961" cy="191117"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="Conector recto 44"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5753465" y="1225657"/>
+            <a:ext cx="236157" cy="125950"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="Conector recto 45"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5823594" y="1271514"/>
+            <a:ext cx="236157" cy="125950"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="47" name="Conector recto 46"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5746790" y="1220409"/>
+            <a:ext cx="151150" cy="78782"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="Conector recto 47"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5900399" y="1331232"/>
+            <a:ext cx="149941" cy="80294"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="Conector recto 48"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5751672" y="1226416"/>
+            <a:ext cx="300341" cy="162686"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5027</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304792</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>178995</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Conector recto 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5751289" y="1045986"/>
+          <a:ext cx="299765" cy="162686"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4509,7 +5078,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="66" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -4536,7 +5105,7 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
+      <c r="A3" s="26"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -4558,7 +5127,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -4580,15 +5149,15 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -4604,13 +5173,13 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -4626,13 +5195,13 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -4654,7 +5223,7 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -4684,7 +5253,7 @@
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -4712,7 +5281,7 @@
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -4742,7 +5311,7 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -4770,7 +5339,7 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
@@ -4800,7 +5369,7 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -4828,7 +5397,7 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -4856,7 +5425,7 @@
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -4886,7 +5455,7 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -4985,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="58" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5002,7 +5571,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -5029,7 +5598,7 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
+      <c r="A3" s="26"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -5051,7 +5620,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -5073,7 +5642,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -5097,7 +5666,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -5113,7 +5682,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="R6" s="18"/>
+      <c r="R6" s="30"/>
       <c r="S6" t="s">
         <v>26</v>
       </c>
@@ -5122,7 +5691,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -5153,7 +5722,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -5186,7 +5755,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -5214,7 +5783,7 @@
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -5223,9 +5792,8 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -5244,7 +5812,7 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -5253,9 +5821,8 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -5272,9 +5839,7 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="26"/>
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -5285,9 +5850,8 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -5302,7 +5866,7 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -5315,14 +5879,13 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="5"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="8"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -5330,7 +5893,7 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -5345,20 +5908,20 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="8"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -5380,7 +5943,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -5388,7 +5951,7 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -5438,21 +6001,27 @@
       <c r="C18" s="24"/>
       <c r="D18" s="19"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="28">
+      <c r="G18" s="25">
         <v>19</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="29">
+        <v>29</v>
+      </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
+      <c r="O18" s="29">
+        <v>14</v>
+      </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
+      <c r="S18" s="29">
+        <v>11</v>
+      </c>
       <c r="T18" s="21"/>
       <c r="U18" s="19"/>
     </row>

--- a/GRAFICA DE GANTT.xlsx
+++ b/GRAFICA DE GANTT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>A1)</t>
   </si>
@@ -115,15 +115,6 @@
   </si>
   <si>
     <t>REV.</t>
-  </si>
-  <si>
-    <t>PREGUNTAS</t>
-  </si>
-  <si>
-    <t>DIP, FINANCIEROS, CONTROL ESCOLAR</t>
-  </si>
-  <si>
-    <t>FORMA PARA AUTOMATIZAR LA ENTREGA DE KIT</t>
   </si>
 </sst>
 </file>
@@ -337,6 +328,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,8 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2858,10 +2849,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>179196</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46510</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22191</xdr:rowOff>
+      <xdr:rowOff>126445</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2271347" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2871,7 +2862,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2984361" y="22191"/>
+          <a:off x="3638525" y="126445"/>
           <a:ext cx="2271347" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2910,10 +2901,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>48987</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>96374</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>17586</xdr:rowOff>
+      <xdr:rowOff>131317</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3247491" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2923,7 +2914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960574" y="17586"/>
+          <a:off x="4939434" y="131317"/>
           <a:ext cx="3247491" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4060,11 +4051,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257494</xdr:colOff>
+      <xdr:colOff>172194</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127249</xdr:rowOff>
+      <xdr:rowOff>136727</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1577474" cy="280487"/>
+    <xdr:ext cx="1960267" cy="204467"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="CuadroTexto 20"/>
@@ -4072,8 +4063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647810" y="127249"/>
-          <a:ext cx="1577474" cy="280487"/>
+          <a:off x="1565403" y="136727"/>
+          <a:ext cx="1960267" cy="204467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4103,7 +4094,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1100" baseline="0"/>
-            <a:t>LOS CHIMICHANGAS</a:t>
+            <a:t>CONGRESO BACHILLERES</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100"/>
         </a:p>
@@ -5078,7 +5069,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="66" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -5105,7 +5096,7 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -5127,7 +5118,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -5149,15 +5140,15 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -5173,13 +5164,13 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -5195,13 +5186,13 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -5223,7 +5214,7 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -5253,7 +5244,7 @@
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -5281,7 +5272,7 @@
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -5311,7 +5302,7 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -5339,7 +5330,7 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
@@ -5369,7 +5360,7 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -5397,7 +5388,7 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -5425,7 +5416,7 @@
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -5455,7 +5446,7 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -5552,10 +5543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5569,9 +5560,9 @@
     <col min="27" max="27" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:24" ht="66" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -5597,8 +5588,8 @@
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -5619,8 +5610,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -5641,8 +5632,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -5665,8 +5656,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -5682,16 +5673,13 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="R6" s="30"/>
+      <c r="R6" s="27"/>
       <c r="S6" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -5717,12 +5705,9 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="AB7" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -5750,12 +5735,9 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="AB8" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -5782,8 +5764,8 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -5811,8 +5793,8 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -5838,8 +5820,8 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -5865,8 +5847,8 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -5892,8 +5874,8 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -5920,8 +5902,8 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -5950,8 +5932,8 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -6008,18 +5990,18 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="29">
+      <c r="L18" s="26">
         <v>29</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="29">
+      <c r="O18" s="26">
         <v>14</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="29">
+      <c r="S18" s="26">
         <v>11</v>
       </c>
       <c r="T18" s="21"/>
